--- a/繳交作業表清單(修正).xlsx
+++ b/繳交作業表清單(修正).xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER2017\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Git\MySqlStudentHomeWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7770"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
   <si>
     <t>已交否</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,10 +38,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>指定題目號</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -49,12 +45,20 @@
     <t>題目號</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>10/13yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10/13yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -71,18 +75,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Arial Black"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="微軟正黑體"/>
       <family val="2"/>
       <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Arial Black"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -128,14 +140,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -167,7 +182,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -445,341 +460,350 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="11.75" customWidth="1"/>
+    <col min="1" max="3" width="9" style="2"/>
+    <col min="4" max="4" width="14" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>344</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="2" t="s">
+    </row>
+    <row r="5" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3">
+        <v>5</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3">
+        <v>6</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3">
+        <v>7</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3">
+        <v>8</v>
+      </c>
+      <c r="C9" s="3">
+        <v>8</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>371</v>
+      </c>
+      <c r="B10" s="3">
+        <v>3</v>
+      </c>
+      <c r="C10" s="3">
+        <v>9</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3">
+        <v>12</v>
+      </c>
+      <c r="C11" s="3">
+        <v>10</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>402</v>
+      </c>
+      <c r="B12" s="3">
+        <v>5</v>
+      </c>
+      <c r="C12" s="3">
+        <v>11</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3">
+        <v>8</v>
+      </c>
+      <c r="C13" s="3">
+        <v>13</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>455</v>
+      </c>
+      <c r="B14" s="3">
+        <v>5</v>
+      </c>
+      <c r="C14" s="3">
+        <v>14</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3">
+        <v>6</v>
+      </c>
+      <c r="C15" s="3">
+        <v>16</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3">
+        <v>7</v>
+      </c>
+      <c r="C16" s="3">
+        <v>17</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3">
+        <v>8</v>
+      </c>
+      <c r="C17" s="3">
+        <v>18</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3">
+        <v>9</v>
+      </c>
+      <c r="C18" s="3">
+        <v>19</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3">
+        <v>10</v>
+      </c>
+      <c r="C19" s="3">
+        <v>20</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3">
+        <v>11</v>
+      </c>
+      <c r="C20" s="3">
+        <v>21</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>487</v>
+      </c>
+      <c r="B21" s="3">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="C21" s="3">
+        <v>22</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3">
+        <v>2</v>
+      </c>
+      <c r="C22" s="3">
+        <v>23</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3">
+        <v>3</v>
+      </c>
+      <c r="C23" s="3">
+        <v>24</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>344</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1">
-        <v>3</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1">
-        <v>4</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1">
+      <c r="C24" s="3">
+        <v>25</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3">
         <v>5</v>
       </c>
-      <c r="C6" s="1">
-        <v>5</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1">
-        <v>6</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1">
+      <c r="C25" s="3">
+        <v>26</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3">
+        <v>6</v>
+      </c>
+      <c r="C26" s="3">
+        <v>27</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3">
         <v>7</v>
       </c>
-      <c r="C8" s="1">
-        <v>7</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1">
-        <v>8</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>371</v>
-      </c>
-      <c r="B10" s="1">
-        <v>3</v>
-      </c>
-      <c r="C10" s="1">
-        <v>9</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1">
-        <v>12</v>
-      </c>
-      <c r="C11" s="1">
-        <v>10</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>402</v>
-      </c>
-      <c r="B12" s="1">
-        <v>5</v>
-      </c>
-      <c r="C12" s="1">
-        <v>11</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1">
-        <v>8</v>
-      </c>
-      <c r="C13" s="1">
-        <v>13</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>455</v>
-      </c>
-      <c r="B14" s="1">
-        <v>5</v>
-      </c>
-      <c r="C14" s="1">
-        <v>14</v>
-      </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1">
-        <v>6</v>
-      </c>
-      <c r="C15" s="1">
-        <v>16</v>
-      </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1">
-        <v>7</v>
-      </c>
-      <c r="C16" s="1">
-        <v>17</v>
-      </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1">
-        <v>8</v>
-      </c>
-      <c r="C17" s="1">
-        <v>18</v>
-      </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1">
-        <v>9</v>
-      </c>
-      <c r="C18" s="1">
-        <v>19</v>
-      </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1">
-        <v>10</v>
-      </c>
-      <c r="C19" s="1">
-        <v>20</v>
-      </c>
-      <c r="D19" s="1">
-        <v>20</v>
-      </c>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1">
-        <v>11</v>
-      </c>
-      <c r="C20" s="1">
-        <v>21</v>
-      </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>487</v>
-      </c>
-      <c r="B21" s="1">
-        <v>1</v>
-      </c>
-      <c r="C21" s="1">
-        <v>22</v>
-      </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-    </row>
-    <row r="22" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1">
-        <v>2</v>
-      </c>
-      <c r="C22" s="1">
-        <v>23</v>
-      </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-    </row>
-    <row r="23" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1">
-        <v>3</v>
-      </c>
-      <c r="C23" s="1">
-        <v>24</v>
-      </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-    </row>
-    <row r="24" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1">
-        <v>4</v>
-      </c>
-      <c r="C24" s="1">
-        <v>25</v>
-      </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-    </row>
-    <row r="25" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1">
-        <v>5</v>
-      </c>
-      <c r="C25" s="1">
-        <v>26</v>
-      </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-    </row>
-    <row r="26" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1">
-        <v>6</v>
-      </c>
-      <c r="C26" s="1">
-        <v>27</v>
-      </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-    </row>
-    <row r="27" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1">
-        <v>7</v>
-      </c>
-      <c r="C27" s="1">
+      <c r="C27" s="3">
         <v>28</v>
       </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/繳交作業表清單(修正).xlsx
+++ b/繳交作業表清單(修正).xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="MySql作業" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,11 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
-  <si>
-    <t>已交否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>學號</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,11 +42,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10/13yes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10/13yes</t>
+    <t>已交日</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -58,6 +50,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -140,7 +135,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -151,6 +146,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -465,32 +463,32 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="9" style="2"/>
     <col min="4" max="4" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
@@ -526,8 +524,8 @@
         <v>3</v>
       </c>
       <c r="D4" s="3"/>
-      <c r="E4" s="3" t="s">
-        <v>5</v>
+      <c r="E4" s="4">
+        <v>43021</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
@@ -561,8 +559,8 @@
         <v>6</v>
       </c>
       <c r="D7" s="3"/>
-      <c r="E7" s="3" t="s">
-        <v>6</v>
+      <c r="E7" s="4">
+        <v>43021</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
@@ -598,8 +596,8 @@
         <v>9</v>
       </c>
       <c r="D10" s="3"/>
-      <c r="E10" s="3" t="s">
-        <v>5</v>
+      <c r="E10" s="4">
+        <v>43021</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
@@ -611,8 +609,8 @@
         <v>10</v>
       </c>
       <c r="D11" s="3"/>
-      <c r="E11" s="3" t="s">
-        <v>6</v>
+      <c r="E11" s="4">
+        <v>43021</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
@@ -672,8 +670,8 @@
         <v>17</v>
       </c>
       <c r="D16" s="3"/>
-      <c r="E16" s="3" t="s">
-        <v>6</v>
+      <c r="E16" s="4">
+        <v>43021</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
@@ -718,8 +716,8 @@
         <v>21</v>
       </c>
       <c r="D20" s="3"/>
-      <c r="E20" s="3" t="s">
-        <v>6</v>
+      <c r="E20" s="4">
+        <v>43021</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
@@ -766,8 +764,8 @@
         <v>25</v>
       </c>
       <c r="D24" s="3"/>
-      <c r="E24" s="3" t="s">
-        <v>6</v>
+      <c r="E24" s="4">
+        <v>43021</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
@@ -779,8 +777,8 @@
         <v>26</v>
       </c>
       <c r="D25" s="3"/>
-      <c r="E25" s="3" t="s">
-        <v>6</v>
+      <c r="E25" s="4">
+        <v>43021</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">

--- a/繳交作業表清單(修正).xlsx
+++ b/繳交作業表清單(修正).xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
   <si>
     <t>學號</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,7 +42,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>已交日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -463,7 +475,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -488,7 +500,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
@@ -524,8 +536,8 @@
         <v>3</v>
       </c>
       <c r="D4" s="3"/>
-      <c r="E4" s="4">
-        <v>43021</v>
+      <c r="E4" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
@@ -559,8 +571,8 @@
         <v>6</v>
       </c>
       <c r="D7" s="3"/>
-      <c r="E7" s="4">
-        <v>43021</v>
+      <c r="E7" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
@@ -596,8 +608,8 @@
         <v>9</v>
       </c>
       <c r="D10" s="3"/>
-      <c r="E10" s="4">
-        <v>43021</v>
+      <c r="E10" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
@@ -609,8 +621,8 @@
         <v>10</v>
       </c>
       <c r="D11" s="3"/>
-      <c r="E11" s="4">
-        <v>43021</v>
+      <c r="E11" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
@@ -670,8 +682,8 @@
         <v>17</v>
       </c>
       <c r="D16" s="3"/>
-      <c r="E16" s="4">
-        <v>43021</v>
+      <c r="E16" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
@@ -716,8 +728,8 @@
         <v>21</v>
       </c>
       <c r="D20" s="3"/>
-      <c r="E20" s="4">
-        <v>43021</v>
+      <c r="E20" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
@@ -764,8 +776,8 @@
         <v>25</v>
       </c>
       <c r="D24" s="3"/>
-      <c r="E24" s="4">
-        <v>43021</v>
+      <c r="E24" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
@@ -777,8 +789,8 @@
         <v>26</v>
       </c>
       <c r="D25" s="3"/>
-      <c r="E25" s="4">
-        <v>43021</v>
+      <c r="E25" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">

--- a/繳交作業表清單(修正).xlsx
+++ b/繳交作業表清單(修正).xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7770" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MySql作業" sheetId="1" r:id="rId1"/>
+    <sheet name="繳交作業" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="68">
   <si>
     <t>學號</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,6 +56,251 @@
   </si>
   <si>
     <t>ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.顯示姓名中包含有”A”的員工之姓名及部門名稱。</t>
+  </si>
+  <si>
+    <t>題目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同學解答</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同學執行結果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.顯示所有員工之姓名, 所屬部門編號, 部門名稱及部門所在地點。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.顯示所有有賺取佣金的員工之姓名, 佣金金額, 部門名稱及部門所在地點。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1號 黎世揚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2號柯竹諺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P.344頁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3號 廖家慧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4號 劉柏宏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5號 鐘克平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6號 羅世棠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7號 范齡云</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.顯示所有在"DALLAS"工作的員工之姓名, 職稱, 部門編號及部門名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.顯示出表頭名為: Employee, Emp#, Manager, Mgr#, 分別表示所有員工之姓名, 員工編號, 主管姓字, 主管的員工編號。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.顯示出SALGRADE資料表的結構, 並建立一查詢顥示所有員工之姓名, 職稱, 部門名稱, 薪資及新資等級。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.顯示出表頭名為: Employee, Emp Hiredate, Manager, Mgr Hiredate的資料項, 來顯示所有比他的主管還要早進公司的員工之姓名, 進公司日期和主管之姓名及進公司日期。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.顯示出表頭名為:dname, loc, Number of People, Salary的資料來顯示所有部門之部門名稱, 部門所在地點, 部門員工數量及部門員工的平均薪資, 平均薪資四捨五入取到小數第二位。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8號 謝於佑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P.371頁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.顯示薪資比公司平均薪資高的所有員工之員工編號, 姓名和薪資, 並依薪資由高到低排列。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9號 劉岱瑋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.顯示薪資比所有職稱是"Clerks"還高的員工之姓名, 進公司日期和薪資, 並將結果依薪資由高至低顯示。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10號 李柏賢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P.402頁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.將薪資低於900元的所有員工薪資調整為1000元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.啟動一個資料庫交易
+將所有員工的薪資調升10%
+設定一個交易儲存點
+刪除所有MY_EMPLOYEE資料表中的資料
+確認資料己被你刪光了
+放棄刪除資料的動作
+確認交易</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11號 古柏元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13號 張立帆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.將employee2的資料表改名為employee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.在EMPLOYEE資料表新增一個外部鍵(foreign key)以確保員工不會被分派到一個不存在的部門
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.顯示DEPT20 view的欄位定義資料(結構)及其所有資料內容。
+- DEPT20 view的欄位定義資料:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">P.455  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17號 凌煥怡</t>
+  </si>
+  <si>
+    <t>5.使用EMP資料表的結構中之EMPNO, ENAME, and DEPTNO之定義來新建EMPLOYEE2資料表並將欄位名稱設定為ID, LAST_NAME, and DEPT_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.刪除整個EMPLOYEE資料表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14號 余稪亘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16號 陳建仁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.將EMPLOYEE資料表中的LAST_NAME欄位刪除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.修改EMPLOYEE資料表, 新增一個欄位SALARY資料型態為NUMERIC datatype, precision7.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.修改EMPLOYEE資料表, 使用ID欄位新增一個Primary key的限制修件(constraint), 並為他命名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18號 陳天宥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19號 李貫愈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20號 鄒明衡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21號 徐欣筠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P.487頁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25號 李文鈞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.使用EMP資料表中的員工編號(empno), 姓名(ename)及部門編號(deptno)來建立一個EMP_VU view, 並將姓名(ename)欄位改以EMPLOYEE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.顯示EMP_VU view中的資料內容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.使用EMP_VU view來顯示所有員工之姓名及部門編號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.試試看利用DEPT20view 將Smith轉調到部門30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.新建一個名為SALARY_VU的view, 包含所有員工之姓名, 部門名稱, 薪資和薪資等級。將View中的資料項目分別命名為Employee, Department, Salary, Grade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27號 謝雯婍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28號 黎崇銘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22號 游家彥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23號 吳俊勳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24號 謝依庭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.新建一個名為DEPT20的view，包含在部門20的所有員工之員工編號，員工姓名，及部門編號。將View中的資料項目命名為EMPLOYEE_ID, EMPLOYEE, and DEPARTMENT_ID. 並設定不允許使用者透過DEPT20 來更改源公所屬的部門編號。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26號周瑞麟</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -104,7 +350,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -114,6 +360,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -147,7 +405,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -162,6 +420,33 @@
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -473,9 +758,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -820,4 +1105,334 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6CEA8D2-E0C4-4492-AF81-078791D52635}">
+  <dimension ref="A1:D31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.875" customWidth="1"/>
+    <col min="2" max="2" width="55.5" style="5" customWidth="1"/>
+    <col min="3" max="3" width="42.75" style="5" customWidth="1"/>
+    <col min="4" max="4" width="59.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="33" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="33" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="10"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="12"/>
+    </row>
+    <row r="5" spans="1:4" ht="33" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="10"/>
+    </row>
+    <row r="6" spans="1:4" ht="33" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="10"/>
+    </row>
+    <row r="7" spans="1:4" ht="33" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="13"/>
+    </row>
+    <row r="8" spans="1:4" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="10"/>
+    </row>
+    <row r="9" spans="1:4" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="10"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:4" ht="33" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+    </row>
+    <row r="12" spans="1:4" ht="33" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="10"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="10"/>
+    </row>
+    <row r="15" spans="1:4" ht="115.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="10"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="10"/>
+    </row>
+    <row r="17" spans="1:4" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="10"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="10"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="10"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="10"/>
+    </row>
+    <row r="21" spans="1:4" ht="33" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="10"/>
+    </row>
+    <row r="22" spans="1:4" ht="33" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="10"/>
+    </row>
+    <row r="23" spans="1:4" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="10"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="6"/>
+    </row>
+    <row r="25" spans="1:4" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="D25" s="10"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" s="10"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="9"/>
+      <c r="D27" s="10"/>
+    </row>
+    <row r="28" spans="1:4" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" s="9"/>
+      <c r="D28" s="10"/>
+    </row>
+    <row r="29" spans="1:4" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="9"/>
+      <c r="D29" s="13"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="9"/>
+      <c r="D30" s="10"/>
+    </row>
+    <row r="31" spans="1:4" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="9"/>
+      <c r="D31" s="10"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/繳交作業表清單(修正).xlsx
+++ b/繳交作業表清單(修正).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7770" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MySql作業" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="69">
   <si>
     <t>學號</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,10 +87,6 @@
   </si>
   <si>
     <t>2號柯竹諺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P.344頁</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -301,6 +297,14 @@
   </si>
   <si>
     <t>26號周瑞麟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -758,9 +762,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1050,7 +1054,9 @@
         <v>24</v>
       </c>
       <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
+      <c r="E23" s="3" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="24" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
@@ -1111,9 +1117,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6CEA8D2-E0C4-4492-AF81-078791D52635}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1126,7 +1132,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>9</v>
@@ -1160,7 +1166,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>8</v>
@@ -1170,57 +1176,57 @@
     </row>
     <row r="5" spans="1:4" ht="33" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="10"/>
     </row>
     <row r="6" spans="1:4" ht="33" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="10"/>
     </row>
     <row r="7" spans="1:4" ht="33" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="13"/>
     </row>
     <row r="8" spans="1:4" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="10"/>
     </row>
     <row r="9" spans="1:4" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="10"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -1228,27 +1234,27 @@
     </row>
     <row r="11" spans="1:4" ht="33" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
     </row>
     <row r="12" spans="1:4" ht="33" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="10"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -1256,27 +1262,27 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="10"/>
     </row>
     <row r="15" spans="1:4" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="10"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -1284,77 +1290,77 @@
     </row>
     <row r="17" spans="1:4" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="10"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="10"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="10"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="10"/>
     </row>
     <row r="21" spans="1:4" ht="33" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="10"/>
     </row>
     <row r="22" spans="1:4" ht="33" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="10"/>
     </row>
     <row r="23" spans="1:4" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="10"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -1362,70 +1368,70 @@
     </row>
     <row r="25" spans="1:4" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="10"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="10"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="10"/>
     </row>
     <row r="28" spans="1:4" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="10"/>
     </row>
     <row r="29" spans="1:4" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="13"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="10"/>
     </row>
     <row r="31" spans="1:4" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="10"/>

--- a/繳交作業表清單(修正).xlsx
+++ b/繳交作業表清單(修正).xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="70">
   <si>
     <t>學號</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -305,6 +305,10 @@
   </si>
   <si>
     <t>ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -763,8 +767,8 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1104,7 +1108,9 @@
         <v>28</v>
       </c>
       <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
+      <c r="E27" s="4" t="s">
+        <v>69</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/繳交作業表清單(修正).xlsx
+++ b/繳交作業表清單(修正).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7770" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MySql作業" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="71">
   <si>
     <t>學號</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -309,6 +309,10 @@
   </si>
   <si>
     <t>OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -766,9 +770,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F27" sqref="F27"/>
+      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1123,9 +1127,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6CEA8D2-E0C4-4492-AF81-078791D52635}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1167,7 +1171,9 @@
       <c r="B3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="9"/>
+      <c r="C3" s="9" t="s">
+        <v>70</v>
+      </c>
       <c r="D3" s="10"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">

--- a/繳交作業表清單(修正).xlsx
+++ b/繳交作業表清單(修正).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7770" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MySql作業" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="71">
   <si>
     <t>學號</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,23 +35,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>指定題目號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>題目號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已交日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ok</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -304,15 +288,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已交日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>備註</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>ok</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>OK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
+    <t>缺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(題目號) 對照 (學號) 己作更正</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -323,7 +323,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -360,6 +360,41 @@
       <color theme="1"/>
       <name val="Arial Black"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="2" tint="-9.9978637043366805E-2"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="4"/>
+      <name val="Arial Black"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="2" tint="-9.9978637043366805E-2"/>
+      <name val="Arial Black"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="4"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -417,7 +452,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -433,32 +468,56 @@
     <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -768,18 +827,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="9" style="2"/>
     <col min="4" max="4" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.375" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -788,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
@@ -811,7 +870,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
+      <c r="E2" s="18"/>
     </row>
     <row r="3" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
@@ -822,7 +881,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
+      <c r="E3" s="18"/>
     </row>
     <row r="4" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -832,10 +891,10 @@
       <c r="C4" s="3">
         <v>3</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="D4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="18"/>
     </row>
     <row r="5" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
@@ -846,7 +905,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+      <c r="E5" s="18"/>
     </row>
     <row r="6" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -857,7 +916,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+      <c r="E6" s="18"/>
     </row>
     <row r="7" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
@@ -867,10 +926,10 @@
       <c r="C7" s="3">
         <v>6</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="D7" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="18"/>
     </row>
     <row r="8" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
@@ -881,7 +940,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
+      <c r="E8" s="19"/>
     </row>
     <row r="9" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
@@ -892,7 +951,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
+      <c r="E9" s="18"/>
     </row>
     <row r="10" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
@@ -904,10 +963,10 @@
       <c r="C10" s="3">
         <v>9</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="D10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="18"/>
     </row>
     <row r="11" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
@@ -917,10 +976,10 @@
       <c r="C11" s="3">
         <v>10</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="D11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="18"/>
     </row>
     <row r="12" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
@@ -933,7 +992,7 @@
         <v>11</v>
       </c>
       <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="E12" s="18"/>
     </row>
     <row r="13" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
@@ -943,178 +1002,218 @@
       <c r="C13" s="3">
         <v>13</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+      <c r="D13" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="18"/>
     </row>
     <row r="14" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>455</v>
-      </c>
-      <c r="B14" s="3">
-        <v>5</v>
-      </c>
-      <c r="C14" s="3">
-        <v>14</v>
+        <v>454</v>
+      </c>
+      <c r="B14" s="21">
+        <v>1</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>68</v>
       </c>
       <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+      <c r="E14" s="18"/>
     </row>
     <row r="15" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
-      <c r="B15" s="3">
-        <v>6</v>
-      </c>
-      <c r="C15" s="3">
-        <v>16</v>
+      <c r="B15" s="21">
+        <v>2</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>68</v>
       </c>
       <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
+      <c r="E15" s="18"/>
     </row>
     <row r="16" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
-      <c r="B16" s="3">
-        <v>7</v>
-      </c>
-      <c r="C16" s="3">
-        <v>17</v>
-      </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="4" t="s">
-        <v>7</v>
+      <c r="B16" s="16">
+        <v>4</v>
+      </c>
+      <c r="C16" s="16">
+        <v>18</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C17" s="3">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
+      <c r="E17" s="18"/>
     </row>
     <row r="18" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
+      <c r="A18" s="3">
+        <v>455</v>
+      </c>
       <c r="B18" s="3">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C18" s="3">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
+      <c r="E18" s="18"/>
     </row>
     <row r="19" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C19" s="3">
-        <v>20</v>
-      </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
+        <v>17</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="18"/>
     </row>
     <row r="20" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
-      <c r="B20" s="3">
-        <v>11</v>
-      </c>
-      <c r="C20" s="3">
-        <v>21</v>
+      <c r="B20" s="17">
+        <v>8</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>68</v>
       </c>
       <c r="D20" s="3"/>
-      <c r="E20" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="E20" s="18"/>
     </row>
     <row r="21" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
-        <v>487</v>
-      </c>
+      <c r="A21" s="3"/>
       <c r="B21" s="3">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C21" s="3">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
+      <c r="E21" s="18"/>
     </row>
     <row r="22" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C22" s="3">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
+      <c r="E22" s="18"/>
     </row>
     <row r="23" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3">
+        <v>11</v>
+      </c>
+      <c r="C23" s="3">
+        <v>21</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="3">
-        <v>24</v>
-      </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3" t="s">
-        <v>68</v>
-      </c>
+      <c r="E23" s="18"/>
     </row>
     <row r="24" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
+      <c r="A24" s="3">
+        <v>487</v>
+      </c>
       <c r="B24" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C24" s="3">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D24" s="3"/>
-      <c r="E24" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="E24" s="18"/>
     </row>
     <row r="25" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
       <c r="B25" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C25" s="3">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D25" s="3"/>
-      <c r="E25" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="E25" s="18"/>
     </row>
     <row r="26" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C26" s="3">
-        <v>27</v>
-      </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="18"/>
     </row>
     <row r="27" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3">
+        <v>4</v>
+      </c>
+      <c r="C27" s="3">
+        <v>25</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="18"/>
+    </row>
+    <row r="28" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3">
+        <v>5</v>
+      </c>
+      <c r="C28" s="3">
+        <v>26</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" s="18"/>
+    </row>
+    <row r="29" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3">
+        <v>6</v>
+      </c>
+      <c r="C29" s="3">
+        <v>27</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="18"/>
+    </row>
+    <row r="30" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3">
         <v>7</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C30" s="3">
         <v>28</v>
       </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="4" t="s">
-        <v>69</v>
-      </c>
+      <c r="D30" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1127,174 +1226,175 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6CEA8D2-E0C4-4492-AF81-078791D52635}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.875" customWidth="1"/>
-    <col min="2" max="2" width="55.5" style="5" customWidth="1"/>
-    <col min="3" max="3" width="42.75" style="5" customWidth="1"/>
-    <col min="4" max="4" width="59.875" customWidth="1"/>
+    <col min="1" max="1" width="23.875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="55.5" style="14" customWidth="1"/>
+    <col min="3" max="3" width="42.75" style="14" customWidth="1"/>
+    <col min="4" max="4" width="59.875" style="7" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>11</v>
+      <c r="A1" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="33" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="10"/>
     </row>
     <row r="3" spans="1:4" ht="33" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D3" s="10"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="12"/>
     </row>
     <row r="5" spans="1:4" ht="33" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>17</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>21</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="10"/>
     </row>
     <row r="6" spans="1:4" ht="33" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>18</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>22</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="10"/>
     </row>
     <row r="7" spans="1:4" ht="33" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>19</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>23</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="13"/>
     </row>
     <row r="8" spans="1:4" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>20</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>24</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="10"/>
     </row>
     <row r="9" spans="1:4" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="10"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="6"/>
+      <c r="A10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="5"/>
     </row>
     <row r="11" spans="1:4" ht="33" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
     </row>
     <row r="12" spans="1:4" ht="33" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="10"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="6"/>
+      <c r="A13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="5"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="10"/>
     </row>
     <row r="15" spans="1:4" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="10"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -1302,148 +1402,148 @@
     </row>
     <row r="17" spans="1:4" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="10"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="10"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="10"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="10"/>
     </row>
     <row r="21" spans="1:4" ht="33" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="10"/>
     </row>
     <row r="22" spans="1:4" ht="33" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="10"/>
     </row>
     <row r="23" spans="1:4" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="10"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="6"/>
+      <c r="A24" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="5"/>
     </row>
     <row r="25" spans="1:4" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="10"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="10"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="10"/>
     </row>
     <row r="28" spans="1:4" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="10"/>
     </row>
     <row r="29" spans="1:4" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="13"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="10"/>
     </row>
     <row r="31" spans="1:4" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="10"/>

--- a/繳交作業表清單(修正).xlsx
+++ b/繳交作業表清單(修正).xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="112">
   <si>
     <t>學號</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,31 +66,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1號 黎世揚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2號柯竹諺</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3號 廖家慧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4號 劉柏宏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5號 鐘克平</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6號 羅世棠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7號 范齡云</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -160,10 +140,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>13號 張立帆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>7.將employee2的資料表改名為employee</t>
   </si>
   <si>
@@ -181,138 +157,308 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>5.使用EMP資料表的結構中之EMPNO, ENAME, and DEPTNO之定義來新建EMPLOYEE2資料表並將欄位名稱設定為ID, LAST_NAME, and DEPT_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.刪除整個EMPLOYEE資料表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16號 陳建仁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.將EMPLOYEE資料表中的LAST_NAME欄位刪除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.修改EMPLOYEE資料表, 新增一個欄位SALARY資料型態為NUMERIC datatype, precision7.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.修改EMPLOYEE資料表, 使用ID欄位新增一個Primary key的限制修件(constraint), 並為他命名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19號 李貫愈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21號 徐欣筠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P.487頁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25號 李文鈞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.使用EMP資料表中的員工編號(empno), 姓名(ename)及部門編號(deptno)來建立一個EMP_VU view, 並將姓名(ename)欄位改以EMPLOYEE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.顯示EMP_VU view中的資料內容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.使用EMP_VU view來顯示所有員工之姓名及部門編號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.試試看利用DEPT20view 將Smith轉調到部門30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.新建一個名為SALARY_VU的view, 包含所有員工之姓名, 部門名稱, 薪資和薪資等級。將View中的資料項目分別命名為Employee, Department, Salary, Grade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23號 吳俊勳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.新建一個名為DEPT20的view，包含在部門20的所有員工之員工編號，員工姓名，及部門編號。將View中的資料項目命名為EMPLOYEE_ID, EMPLOYEE, and DEPARTMENT_ID. 並設定不允許使用者透過DEPT20 來更改源公所屬的部門編號。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26號周瑞麟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已交日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>備註</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(題目號) 對照 (學號) 己作更正</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英文名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1號 黎世揚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黎世揚</t>
+  </si>
+  <si>
+    <t>柯竹諺</t>
+  </si>
+  <si>
+    <t>廖家慧</t>
+  </si>
+  <si>
+    <t>4號 劉柏宏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>劉柏宏</t>
+  </si>
+  <si>
+    <t>5號 鐘克平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鐘克平</t>
+  </si>
+  <si>
+    <t>6號 羅世棠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>羅世棠</t>
+  </si>
+  <si>
+    <t>7號 范齡云</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>范齡云</t>
+  </si>
+  <si>
+    <t>謝於佑</t>
+  </si>
+  <si>
+    <t>劉岱瑋</t>
+  </si>
+  <si>
+    <t>李柏賢</t>
+  </si>
+  <si>
+    <t>古柏元</t>
+  </si>
+  <si>
+    <t>13號 張立帆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>張立帆</t>
+  </si>
+  <si>
+    <t>陳天宥</t>
+  </si>
+  <si>
+    <t>余馥亘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14號 余馥亘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陳建仁</t>
+  </si>
+  <si>
     <t>17號 凌煥怡</t>
-  </si>
-  <si>
-    <t>5.使用EMP資料表的結構中之EMPNO, ENAME, and DEPTNO之定義來新建EMPLOYEE2資料表並將欄位名稱設定為ID, LAST_NAME, and DEPT_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.刪除整個EMPLOYEE資料表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14號 余稪亘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16號 陳建仁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8.將EMPLOYEE資料表中的LAST_NAME欄位刪除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9.修改EMPLOYEE資料表, 新增一個欄位SALARY資料型態為NUMERIC datatype, precision7.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.修改EMPLOYEE資料表, 使用ID欄位新增一個Primary key的限制修件(constraint), 並為他命名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凌煥怡</t>
+  </si>
+  <si>
+    <t>缺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李貫愈</t>
+  </si>
+  <si>
+    <t>20號 鄒明衡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鄒明衡</t>
+  </si>
+  <si>
+    <t>徐欣筠</t>
+  </si>
+  <si>
+    <t>22號 游家彥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游家彥</t>
+  </si>
+  <si>
+    <t>吳俊勳</t>
+  </si>
+  <si>
+    <t>24號 謝依庭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>謝依庭</t>
+  </si>
+  <si>
+    <t>李文鈞</t>
+  </si>
+  <si>
+    <t>周瑞麟</t>
+  </si>
+  <si>
+    <t>27號 謝雯婍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>謝雯婍</t>
+  </si>
+  <si>
+    <t>28號 黎崇銘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黎崇銘</t>
+  </si>
+  <si>
+    <t>Johnny Chang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alex Chen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ballman12304@yahoo.com.tw</t>
+  </si>
+  <si>
+    <t>riversnow@gmail.com</t>
+  </si>
+  <si>
+    <t>alexchen777999@gmail.com</t>
+  </si>
+  <si>
+    <t>lcmstan@gmail.com</t>
+  </si>
+  <si>
+    <t>1.利用下列資料表來新建DEPARTMENT資料表
+ColumnName Null?  DataType
+------------------ -------- ----------------------------
+id                 NOT   NULL  NUMERIC(7)
+name            NOT   NULL  VARCHAR(24)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.利用DEPT資料表中的資料, 將資料新增至DEPARTMENT資料表中(只新增相對的資料欄)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.利用下列資料來新建EMPLOYEE資料表
+ColumnName Null?  DataType
+------------------ -------- ----------------------------
+id                 NOT   NULL  NUMERIC(7)
+last_name      NOT   NULL  VARCHAR(24)
+first_name                          VARCHAR(24)
+dept_id                             NUMERIC(7)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.將EMPLOYEE資料表中last_name欄位的資料型態更改為varchar(40)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">P.454  </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>18號 陳天宥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19號 李貫愈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20號 鄒明衡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>21號 徐欣筠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P.487頁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>25號 李文鈞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.使用EMP資料表中的員工編號(empno), 姓名(ename)及部門編號(deptno)來建立一個EMP_VU view, 並將姓名(ename)欄位改以EMPLOYEE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.顯示EMP_VU view中的資料內容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.使用EMP_VU view來顯示所有員工之姓名及部門編號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.試試看利用DEPT20view 將Smith轉調到部門30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7.新建一個名為SALARY_VU的view, 包含所有員工之姓名, 部門名稱, 薪資和薪資等級。將View中的資料項目分別命名為Employee, Department, Salary, Grade</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>27號 謝雯婍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>28號 黎崇銘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>22號 游家彥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>23號 吳俊勳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>24號 謝依庭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.新建一個名為DEPT20的view，包含在部門20的所有員工之員工編號，員工姓名，及部門編號。將View中的資料項目命名為EMPLOYEE_ID, EMPLOYEE, and DEPARTMENT_ID. 並設定不允許使用者透過DEPT20 來更改源公所屬的部門編號。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>26號周瑞麟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已交日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>備註</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>缺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(題目號) 對照 (學號) 己作更正</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -323,7 +469,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -396,6 +542,26 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="4"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF555555"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -423,7 +589,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -446,13 +612,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -468,6 +660,9 @@
     <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -518,6 +713,27 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -827,22 +1043,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="9" style="2"/>
-    <col min="4" max="4" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="2"/>
+    <col min="4" max="4" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="26.625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="8.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -853,13 +1072,22 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>344</v>
       </c>
@@ -869,10 +1097,15 @@
       <c r="C2" s="3">
         <v>1</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="18"/>
-    </row>
-    <row r="3" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="D2" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="28"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="19"/>
+    </row>
+    <row r="3" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3">
         <v>2</v>
@@ -880,10 +1113,15 @@
       <c r="C3" s="3">
         <v>2</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="18"/>
-    </row>
-    <row r="4" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="D3" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="28"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="19"/>
+    </row>
+    <row r="4" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3">
         <v>3</v>
@@ -891,12 +1129,17 @@
       <c r="C4" s="3">
         <v>3</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="28"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="18"/>
-    </row>
-    <row r="5" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="H4" s="19"/>
+    </row>
+    <row r="5" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3">
         <v>4</v>
@@ -904,10 +1147,15 @@
       <c r="C5" s="3">
         <v>4</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="18"/>
-    </row>
-    <row r="6" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="D5" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="28"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="19"/>
+    </row>
+    <row r="6" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3">
         <v>5</v>
@@ -915,10 +1163,15 @@
       <c r="C6" s="3">
         <v>5</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="18"/>
-    </row>
-    <row r="7" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="D6" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="28"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="19"/>
+    </row>
+    <row r="7" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3">
         <v>6</v>
@@ -926,12 +1179,17 @@
       <c r="C7" s="3">
         <v>6</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E7" s="18"/>
-    </row>
-    <row r="8" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="D7" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="28"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" s="19"/>
+    </row>
+    <row r="8" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3">
         <v>7</v>
@@ -939,10 +1197,15 @@
       <c r="C8" s="3">
         <v>7</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="19"/>
-    </row>
-    <row r="9" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="D8" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="28"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="20"/>
+    </row>
+    <row r="9" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3">
         <v>8</v>
@@ -950,10 +1213,15 @@
       <c r="C9" s="3">
         <v>8</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="18"/>
-    </row>
-    <row r="10" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="D9" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="28"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="19"/>
+    </row>
+    <row r="10" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>371</v>
       </c>
@@ -963,12 +1231,17 @@
       <c r="C10" s="3">
         <v>9</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" s="28"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="18"/>
-    </row>
-    <row r="11" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="H10" s="19"/>
+    </row>
+    <row r="11" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3">
         <v>12</v>
@@ -976,12 +1249,17 @@
       <c r="C11" s="3">
         <v>10</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="28"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="18"/>
-    </row>
-    <row r="12" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="H11" s="19"/>
+    </row>
+    <row r="12" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>402</v>
       </c>
@@ -991,10 +1269,15 @@
       <c r="C12" s="3">
         <v>11</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="18"/>
-    </row>
-    <row r="13" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="D12" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" s="28"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="19"/>
+    </row>
+    <row r="13" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3">
         <v>8</v>
@@ -1002,51 +1285,75 @@
       <c r="C13" s="3">
         <v>13</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="18"/>
-    </row>
-    <row r="14" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="H13" s="19"/>
+    </row>
+    <row r="14" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>454</v>
       </c>
-      <c r="B14" s="21">
+      <c r="B14" s="22">
         <v>1</v>
       </c>
-      <c r="C14" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="18"/>
-    </row>
-    <row r="15" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="C14" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="16"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="19"/>
+    </row>
+    <row r="15" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
-      <c r="B15" s="21">
+      <c r="B15" s="22">
         <v>2</v>
       </c>
-      <c r="C15" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="18"/>
-    </row>
-    <row r="16" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="C15" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="16"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="19"/>
+    </row>
+    <row r="16" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
-      <c r="B16" s="16">
+      <c r="B16" s="17">
         <v>4</v>
       </c>
-      <c r="C16" s="16">
+      <c r="C16" s="17">
         <v>18</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E16" s="20" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="D16" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H16" s="21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3">
         <v>5</v>
@@ -1054,10 +1361,15 @@
       <c r="C17" s="3">
         <v>14</v>
       </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="18"/>
-    </row>
-    <row r="18" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="D17" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="E17" s="28"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="19"/>
+    </row>
+    <row r="18" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>455</v>
       </c>
@@ -1067,10 +1379,15 @@
       <c r="C18" s="3">
         <v>16</v>
       </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="18"/>
-    </row>
-    <row r="19" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="D18" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="E18" s="28"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="19"/>
+    </row>
+    <row r="19" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3">
         <v>7</v>
@@ -1078,23 +1395,31 @@
       <c r="C19" s="3">
         <v>17</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="E19" s="28"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="18"/>
-    </row>
-    <row r="20" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="H19" s="19"/>
+    </row>
+    <row r="20" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
-      <c r="B20" s="17">
+      <c r="B20" s="18">
         <v>8</v>
       </c>
-      <c r="C20" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="18"/>
-    </row>
-    <row r="21" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="C20" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="16"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="19"/>
+    </row>
+    <row r="21" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3">
         <v>9</v>
@@ -1102,10 +1427,15 @@
       <c r="C21" s="3">
         <v>19</v>
       </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="18"/>
-    </row>
-    <row r="22" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="D21" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="E21" s="28"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="19"/>
+    </row>
+    <row r="22" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3">
         <v>10</v>
@@ -1113,10 +1443,15 @@
       <c r="C22" s="3">
         <v>20</v>
       </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="18"/>
-    </row>
-    <row r="23" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="D22" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="E22" s="28"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="19"/>
+    </row>
+    <row r="23" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3">
         <v>11</v>
@@ -1124,12 +1459,17 @@
       <c r="C23" s="3">
         <v>21</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="E23" s="28"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E23" s="18"/>
-    </row>
-    <row r="24" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="H23" s="19"/>
+    </row>
+    <row r="24" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>487</v>
       </c>
@@ -1139,20 +1479,32 @@
       <c r="C24" s="3">
         <v>22</v>
       </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="18"/>
-    </row>
-    <row r="25" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="D24" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="E24" s="28"/>
+      <c r="F24" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="G24" s="3"/>
+      <c r="H24" s="19"/>
+    </row>
+    <row r="25" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="B25" s="3">
         <v>2</v>
       </c>
       <c r="C25" s="3">
         <v>23</v>
       </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="18"/>
-    </row>
-    <row r="26" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="D25" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="E25" s="28"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="19"/>
+    </row>
+    <row r="26" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3">
         <v>3</v>
@@ -1160,12 +1512,17 @@
       <c r="C26" s="3">
         <v>24</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="E26" s="28"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E26" s="18"/>
-    </row>
-    <row r="27" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="H26" s="19"/>
+    </row>
+    <row r="27" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3">
         <v>4</v>
@@ -1173,12 +1530,17 @@
       <c r="C27" s="3">
         <v>25</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="E27" s="28"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E27" s="18"/>
-    </row>
-    <row r="28" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="H27" s="19"/>
+    </row>
+    <row r="28" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3">
         <v>5</v>
@@ -1186,12 +1548,17 @@
       <c r="C28" s="3">
         <v>26</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="E28" s="28"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E28" s="18"/>
-    </row>
-    <row r="29" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="H28" s="19"/>
+    </row>
+    <row r="29" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="3">
         <v>6</v>
@@ -1199,10 +1566,15 @@
       <c r="C29" s="3">
         <v>27</v>
       </c>
-      <c r="D29" s="3"/>
-      <c r="E29" s="18"/>
-    </row>
-    <row r="30" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="D29" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E29" s="28"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="19"/>
+    </row>
+    <row r="30" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="3">
         <v>7</v>
@@ -1210,10 +1582,17 @@
       <c r="C30" s="3">
         <v>28</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="G30" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E30" s="18"/>
+      <c r="H30" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1224,329 +1603,371 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6CEA8D2-E0C4-4492-AF81-078791D52635}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.875" style="7" customWidth="1"/>
-    <col min="2" max="2" width="55.5" style="14" customWidth="1"/>
-    <col min="3" max="3" width="42.75" style="14" customWidth="1"/>
-    <col min="4" max="4" width="59.875" style="7" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="7"/>
+    <col min="1" max="1" width="23.875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="55.5" style="15" customWidth="1"/>
+    <col min="3" max="3" width="42.75" style="15" customWidth="1"/>
+    <col min="4" max="4" width="59.875" style="8" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="33" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:4" ht="33" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="11"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="13"/>
+    </row>
+    <row r="5" spans="1:4" ht="33" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="33" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="10"/>
-    </row>
-    <row r="3" spans="1:4" ht="33" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" s="10"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="B5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="12"/>
-    </row>
-    <row r="5" spans="1:4" ht="33" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="C5" s="10"/>
+      <c r="D5" s="11"/>
+    </row>
+    <row r="6" spans="1:4" ht="33" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="C6" s="10"/>
+      <c r="D6" s="11"/>
+    </row>
+    <row r="7" spans="1:4" ht="33" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="14"/>
+    </row>
+    <row r="8" spans="1:4" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="11"/>
+    </row>
+    <row r="9" spans="1:4" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="10"/>
-    </row>
-    <row r="6" spans="1:4" ht="33" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="9" t="s">
+      <c r="B9" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="11"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="10"/>
-    </row>
-    <row r="7" spans="1:4" ht="33" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="9" t="s">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:4" ht="33" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="13"/>
-    </row>
-    <row r="8" spans="1:4" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="10"/>
-    </row>
-    <row r="9" spans="1:4" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+    </row>
+    <row r="12" spans="1:4" ht="33" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B12" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="10"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="C12" s="10"/>
+      <c r="D12" s="11"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="5"/>
-    </row>
-    <row r="11" spans="1:4" ht="33" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="11"/>
+    </row>
+    <row r="15" spans="1:4" ht="115.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-    </row>
-    <row r="12" spans="1:4" ht="33" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="C15" s="10"/>
+      <c r="D15" s="11"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="11"/>
+    </row>
+    <row r="17" spans="1:4" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="9"/>
+      <c r="B17" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="11"/>
+    </row>
+    <row r="18" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="9"/>
+      <c r="B18" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="11"/>
+    </row>
+    <row r="19" spans="1:4" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="29"/>
+      <c r="B19" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="11"/>
+    </row>
+    <row r="20" spans="1:4" ht="33" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="11"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="6"/>
+    </row>
+    <row r="22" spans="1:4" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="11"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="10"/>
+      <c r="D23" s="11"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="10"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="C24" s="10"/>
+      <c r="D24" s="11"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="10"/>
+      <c r="D25" s="11"/>
+    </row>
+    <row r="26" spans="1:4" ht="33" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="10"/>
+      <c r="D26" s="11"/>
+    </row>
+    <row r="27" spans="1:4" ht="33" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="10"/>
+      <c r="D27" s="11"/>
+    </row>
+    <row r="28" spans="1:4" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="5"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="9" t="s">
+      <c r="C28" s="10"/>
+      <c r="D28" s="11"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="6"/>
+    </row>
+    <row r="30" spans="1:4" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="10"/>
+      <c r="D30" s="11"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="10"/>
+      <c r="D31" s="11"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="10"/>
+      <c r="D32" s="11"/>
+    </row>
+    <row r="33" spans="1:4" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" s="10"/>
+      <c r="D33" s="11"/>
+    </row>
+    <row r="34" spans="1:4" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="10"/>
-    </row>
-    <row r="15" spans="1:4" ht="115.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="10"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="10"/>
-    </row>
-    <row r="17" spans="1:4" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="10"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="10"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="10"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
+      <c r="C34" s="10"/>
+      <c r="D34" s="14"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" s="10"/>
+      <c r="D35" s="11"/>
+    </row>
+    <row r="36" spans="1:4" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B36" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="10"/>
-    </row>
-    <row r="21" spans="1:4" ht="33" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="10"/>
-    </row>
-    <row r="22" spans="1:4" ht="33" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="10"/>
-    </row>
-    <row r="23" spans="1:4" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="10"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="5"/>
-    </row>
-    <row r="25" spans="1:4" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="10"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="10"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="10"/>
-    </row>
-    <row r="28" spans="1:4" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="10"/>
-    </row>
-    <row r="29" spans="1:4" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="13"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C30" s="9"/>
-      <c r="D30" s="10"/>
-    </row>
-    <row r="31" spans="1:4" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C31" s="9"/>
-      <c r="D31" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/繳交作業表清單(修正).xlsx
+++ b/繳交作業表清單(修正).xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="114">
   <si>
     <t>學號</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -416,18 +416,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ballman12304@yahoo.com.tw</t>
-  </si>
-  <si>
-    <t>riversnow@gmail.com</t>
-  </si>
-  <si>
-    <t>alexchen777999@gmail.com</t>
-  </si>
-  <si>
-    <t>lcmstan@gmail.com</t>
-  </si>
-  <si>
     <t>1.利用下列資料表來新建DEPARTMENT資料表
 ColumnName Null?  DataType
 ------------------ -------- ----------------------------
@@ -459,6 +447,30 @@
   </si>
   <si>
     <t>18號 陳天宥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dome</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hopefuldom@gmail.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>riversnow@gmail.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alexchen777999@gmail.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ballman12304@yahoo.com.tw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lcmstan@gmail.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -469,7 +481,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -562,6 +574,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -639,12 +660,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -720,9 +744,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -735,9 +756,19 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1046,8 +1077,8 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1100,8 +1131,8 @@
       <c r="D2" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="E2" s="28"/>
-      <c r="F2" s="26"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="25"/>
       <c r="G2" s="3"/>
       <c r="H2" s="19"/>
     </row>
@@ -1116,8 +1147,8 @@
       <c r="D3" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="E3" s="28"/>
-      <c r="F3" s="26"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="25"/>
       <c r="G3" s="3"/>
       <c r="H3" s="19"/>
     </row>
@@ -1132,8 +1163,8 @@
       <c r="D4" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="E4" s="28"/>
-      <c r="F4" s="26"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="25"/>
       <c r="G4" s="4" t="s">
         <v>3</v>
       </c>
@@ -1150,8 +1181,8 @@
       <c r="D5" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="E5" s="28"/>
-      <c r="F5" s="26"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="25"/>
       <c r="G5" s="3"/>
       <c r="H5" s="19"/>
     </row>
@@ -1166,8 +1197,8 @@
       <c r="D6" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="E6" s="28"/>
-      <c r="F6" s="26"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="25"/>
       <c r="G6" s="3"/>
       <c r="H6" s="19"/>
     </row>
@@ -1182,8 +1213,8 @@
       <c r="D7" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="E7" s="28"/>
-      <c r="F7" s="26"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="25"/>
       <c r="G7" s="4" t="s">
         <v>53</v>
       </c>
@@ -1200,8 +1231,8 @@
       <c r="D8" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="28"/>
-      <c r="F8" s="26"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="25"/>
       <c r="G8" s="3"/>
       <c r="H8" s="20"/>
     </row>
@@ -1216,8 +1247,8 @@
       <c r="D9" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="E9" s="28"/>
-      <c r="F9" s="26"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="25"/>
       <c r="G9" s="3"/>
       <c r="H9" s="19"/>
     </row>
@@ -1234,8 +1265,12 @@
       <c r="D10" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="E10" s="28"/>
-      <c r="F10" s="26"/>
+      <c r="E10" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>109</v>
+      </c>
       <c r="G10" s="4" t="s">
         <v>3</v>
       </c>
@@ -1252,8 +1287,8 @@
       <c r="D11" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="E11" s="28"/>
-      <c r="F11" s="26"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="25"/>
       <c r="G11" s="4" t="s">
         <v>3</v>
       </c>
@@ -1272,8 +1307,8 @@
       <c r="D12" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="E12" s="28"/>
-      <c r="F12" s="26"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="25"/>
       <c r="G12" s="3"/>
       <c r="H12" s="19"/>
     </row>
@@ -1288,11 +1323,11 @@
       <c r="D13" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="E13" s="28" t="s">
+      <c r="E13" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="F13" s="25" t="s">
-        <v>103</v>
+      <c r="F13" s="30" t="s">
+        <v>110</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>3</v>
@@ -1310,8 +1345,8 @@
         <v>54</v>
       </c>
       <c r="D14" s="16"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="26"/>
       <c r="G14" s="3"/>
       <c r="H14" s="19"/>
     </row>
@@ -1324,8 +1359,8 @@
         <v>54</v>
       </c>
       <c r="D15" s="16"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="26"/>
       <c r="G15" s="3"/>
       <c r="H15" s="19"/>
     </row>
@@ -1340,11 +1375,11 @@
       <c r="D16" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="E16" s="28" t="s">
+      <c r="E16" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="F16" s="25" t="s">
-        <v>104</v>
+      <c r="F16" s="30" t="s">
+        <v>111</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>55</v>
@@ -1364,8 +1399,8 @@
       <c r="D17" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="E17" s="28"/>
-      <c r="F17" s="26"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="25"/>
       <c r="G17" s="3"/>
       <c r="H17" s="19"/>
     </row>
@@ -1382,8 +1417,8 @@
       <c r="D18" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="E18" s="28"/>
-      <c r="F18" s="26"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="25"/>
       <c r="G18" s="3"/>
       <c r="H18" s="19"/>
     </row>
@@ -1398,8 +1433,8 @@
       <c r="D19" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="E19" s="28"/>
-      <c r="F19" s="26"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="25"/>
       <c r="G19" s="4" t="s">
         <v>3</v>
       </c>
@@ -1414,8 +1449,8 @@
         <v>54</v>
       </c>
       <c r="D20" s="16"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="26"/>
       <c r="G20" s="3"/>
       <c r="H20" s="19"/>
     </row>
@@ -1430,8 +1465,8 @@
       <c r="D21" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="E21" s="28"/>
-      <c r="F21" s="26"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="25"/>
       <c r="G21" s="3"/>
       <c r="H21" s="19"/>
     </row>
@@ -1446,8 +1481,8 @@
       <c r="D22" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="E22" s="28"/>
-      <c r="F22" s="26"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="25"/>
       <c r="G22" s="3"/>
       <c r="H22" s="19"/>
     </row>
@@ -1462,8 +1497,8 @@
       <c r="D23" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="E23" s="28"/>
-      <c r="F23" s="26"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="25"/>
       <c r="G23" s="4" t="s">
         <v>3</v>
       </c>
@@ -1482,11 +1517,13 @@
       <c r="D24" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="E24" s="28"/>
-      <c r="F24" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="G24" s="3"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="H24" s="19"/>
     </row>
     <row r="25" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
@@ -1499,8 +1536,8 @@
       <c r="D25" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="E25" s="28"/>
-      <c r="F25" s="26"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="25"/>
       <c r="G25" s="3"/>
       <c r="H25" s="19"/>
     </row>
@@ -1515,8 +1552,8 @@
       <c r="D26" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="E26" s="28"/>
-      <c r="F26" s="26"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="25"/>
       <c r="G26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1533,8 +1570,8 @@
       <c r="D27" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="E27" s="28"/>
-      <c r="F27" s="26"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="25"/>
       <c r="G27" s="4" t="s">
         <v>3</v>
       </c>
@@ -1551,8 +1588,8 @@
       <c r="D28" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="E28" s="28"/>
-      <c r="F28" s="26"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="25"/>
       <c r="G28" s="4" t="s">
         <v>3</v>
       </c>
@@ -1569,8 +1606,8 @@
       <c r="D29" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="E29" s="28"/>
-      <c r="F29" s="26"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="25"/>
       <c r="G29" s="3"/>
       <c r="H29" s="19"/>
     </row>
@@ -1585,9 +1622,9 @@
       <c r="D30" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28" t="s">
-        <v>105</v>
+      <c r="E30" s="27"/>
+      <c r="F30" s="31" t="s">
+        <v>113</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>3</v>
@@ -1596,8 +1633,15 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F10" r:id="rId1" xr:uid="{16E11EAF-F38A-4C2F-9485-D0A15D16744E}"/>
+    <hyperlink ref="F13" r:id="rId2" xr:uid="{EDF9ADF6-B691-44DA-8D99-D718297B751E}"/>
+    <hyperlink ref="F16" r:id="rId3" xr:uid="{001D9C19-0E1A-40A0-B859-ADF7095EF7CE}"/>
+    <hyperlink ref="F24" r:id="rId4" xr:uid="{9F0175E4-4D7F-4BB4-A060-A2884124259E}"/>
+    <hyperlink ref="F30" r:id="rId5" xr:uid="{9E6FC24F-C369-4B07-A2D5-D0C9D14B529B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -1773,7 +1817,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -1782,7 +1826,7 @@
     <row r="17" spans="1:4" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
       <c r="B17" s="5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="11"/>
@@ -1790,25 +1834,25 @@
     <row r="18" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
       <c r="B18" s="5" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="11"/>
     </row>
     <row r="19" spans="1:4" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="29"/>
+      <c r="A19" s="28"/>
       <c r="B19" s="5" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="11"/>
     </row>
     <row r="20" spans="1:4" ht="33" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="11"/>

--- a/繳交作業表清單(修正).xlsx
+++ b/繳交作業表清單(修正).xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="125">
   <si>
     <t>3.顯示姓名中包含有”A”的員工之姓名及部門名稱。</t>
   </si>
@@ -501,6 +501,17 @@
   </si>
   <si>
     <t>lcmstan@gmail.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uch5566@gmail.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jay</t>
+  </si>
+  <si>
+    <t>k23339123@yahoo.com.tw</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -674,13 +685,16 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -742,6 +756,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1">
@@ -1071,13 +1088,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9" style="24"/>
-    <col min="4" max="4" width="10" style="24" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.375" style="24" customWidth="1"/>
-    <col min="6" max="6" width="26.625" style="24" customWidth="1"/>
-    <col min="7" max="7" width="8.875" style="24" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.375" style="24" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="24"/>
+    <col min="1" max="3" width="9" style="2"/>
+    <col min="4" max="4" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="26.625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="8.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1107,558 +1124,570 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>344</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="3">
         <v>1</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="3">
         <v>1</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="21"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="16"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="17"/>
     </row>
     <row r="3" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3">
         <v>2</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="3">
         <v>2</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="H3" s="16"/>
+      <c r="H3" s="17"/>
     </row>
     <row r="4" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3">
         <v>3</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="3">
         <v>3</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="E4" s="21"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="3" t="s">
+      <c r="E4" s="22"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="H4" s="16"/>
+      <c r="H4" s="17"/>
     </row>
     <row r="5" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3">
         <v>4</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="3">
         <v>4</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="21"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="16"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="17"/>
     </row>
     <row r="6" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3">
         <v>5</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="3">
         <v>5</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="F6" s="25" t="s">
+      <c r="F6" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="H6" s="16"/>
+      <c r="H6" s="17"/>
     </row>
     <row r="7" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3">
         <v>6</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="3">
         <v>6</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="21"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="3" t="s">
+      <c r="E7" s="22"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="H7" s="16"/>
+      <c r="H7" s="17"/>
     </row>
     <row r="8" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3">
         <v>7</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="3">
         <v>7</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="E8" s="21"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="17"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="18"/>
     </row>
     <row r="9" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3">
         <v>8</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="3">
         <v>8</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="E9" s="21"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="16"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="17"/>
     </row>
     <row r="10" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="A10" s="3">
         <v>371</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="3">
         <v>3</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="3">
         <v>9</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="F10" s="25" t="s">
+      <c r="F10" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="H10" s="16"/>
+      <c r="H10" s="17"/>
     </row>
     <row r="11" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3">
         <v>12</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="3">
         <v>10</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="E11" s="21"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="3" t="s">
+      <c r="E11" s="22"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="H11" s="16"/>
+      <c r="H11" s="17"/>
     </row>
     <row r="12" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+      <c r="A12" s="3">
         <v>402</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="3">
         <v>5</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="3">
         <v>11</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="E12" s="21"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="16"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="17"/>
     </row>
     <row r="13" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3">
         <v>8</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="3">
         <v>13</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="E13" s="21" t="s">
+      <c r="E13" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="F13" s="23" t="s">
+      <c r="F13" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="H13" s="16"/>
+      <c r="H13" s="17"/>
     </row>
     <row r="14" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+      <c r="A14" s="3">
         <v>454</v>
       </c>
-      <c r="B14" s="19">
+      <c r="B14" s="20">
         <v>1</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="17"/>
     </row>
     <row r="15" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="19">
+      <c r="A15" s="3"/>
+      <c r="B15" s="20">
         <v>2</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="17"/>
     </row>
     <row r="16" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="19">
+      <c r="A16" s="3"/>
+      <c r="B16" s="20">
         <v>4</v>
       </c>
-      <c r="C16" s="19">
+      <c r="C16" s="20">
         <v>18</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="E16" s="21" t="s">
+      <c r="E16" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="F16" s="23" t="s">
+      <c r="F16" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="H16" s="18" t="s">
+      <c r="H16" s="19" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3">
         <v>5</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="3">
         <v>14</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="D17" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="E17" s="21"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="16"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="17"/>
     </row>
     <row r="18" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+      <c r="A18" s="3">
         <v>455</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="3">
         <v>6</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="3">
         <v>16</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="E18" s="21"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="16"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="H18" s="17"/>
     </row>
     <row r="19" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3">
         <v>7</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="3">
         <v>17</v>
       </c>
-      <c r="D19" s="20" t="s">
+      <c r="D19" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="E19" s="21"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="3" t="s">
+      <c r="E19" s="22"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="H19" s="16"/>
+      <c r="H19" s="17"/>
     </row>
     <row r="20" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3">
         <v>8</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="D20" s="15"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="17"/>
     </row>
     <row r="21" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3">
         <v>9</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="3">
         <v>19</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="D21" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="E21" s="21"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="16"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="17"/>
     </row>
     <row r="22" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3">
         <v>10</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="3">
         <v>20</v>
       </c>
-      <c r="D22" s="20" t="s">
+      <c r="D22" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="E22" s="21"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="16"/>
+      <c r="E22" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="F22" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="H22" s="17"/>
     </row>
     <row r="23" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3">
         <v>11</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="3">
         <v>21</v>
       </c>
-      <c r="D23" s="20" t="s">
+      <c r="D23" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="E23" s="21"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="3" t="s">
+      <c r="E23" s="22"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="H23" s="16"/>
+      <c r="H23" s="17"/>
     </row>
     <row r="24" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+      <c r="A24" s="3">
         <v>487</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="3">
         <v>1</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="3">
         <v>22</v>
       </c>
-      <c r="D24" s="20" t="s">
+      <c r="D24" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="E24" s="21" t="s">
+      <c r="E24" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="F24" s="23" t="s">
+      <c r="F24" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="G24" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="H24" s="16"/>
+      <c r="H24" s="17"/>
     </row>
     <row r="25" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="16"/>
-      <c r="B25" s="2">
+      <c r="A25" s="17"/>
+      <c r="B25" s="3">
         <v>2</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="3">
         <v>23</v>
       </c>
-      <c r="D25" s="20" t="s">
+      <c r="D25" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="E25" s="21"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="16"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="17"/>
     </row>
     <row r="26" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3">
         <v>3</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="3">
         <v>24</v>
       </c>
-      <c r="D26" s="20" t="s">
+      <c r="D26" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="E26" s="21" t="s">
+      <c r="E26" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="F26" s="23" t="s">
+      <c r="F26" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="G26" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="H26" s="16"/>
+      <c r="H26" s="17"/>
     </row>
     <row r="27" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3">
         <v>4</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="3">
         <v>25</v>
       </c>
-      <c r="D27" s="20" t="s">
+      <c r="D27" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="E27" s="21"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="3" t="s">
+      <c r="E27" s="22"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="H27" s="16"/>
+      <c r="H27" s="17"/>
     </row>
     <row r="28" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3">
         <v>5</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="3">
         <v>26</v>
       </c>
-      <c r="D28" s="20" t="s">
+      <c r="D28" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E28" s="21" t="s">
+      <c r="E28" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="F28" s="23" t="s">
+      <c r="F28" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="G28" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="H28" s="16"/>
+      <c r="H28" s="17"/>
     </row>
     <row r="29" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3">
         <v>6</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="3">
         <v>27</v>
       </c>
-      <c r="D29" s="20" t="s">
+      <c r="D29" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="E29" s="21"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="16"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="17"/>
     </row>
     <row r="30" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3">
         <v>7</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="3">
         <v>28</v>
       </c>
-      <c r="D30" s="20" t="s">
+      <c r="D30" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="E30" s="21" t="s">
+      <c r="E30" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="F30" s="23" t="s">
+      <c r="F30" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="G30" s="3" t="s">
+      <c r="G30" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="H30" s="16"/>
+      <c r="H30" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F10" r:id="rId1" xr:uid="{01797243-1F58-432F-ACEC-C72EC1858AC9}"/>
-    <hyperlink ref="F24" r:id="rId2" xr:uid="{06206FDE-D6C0-4EAF-8DA1-CFF3F00F28E3}"/>
-    <hyperlink ref="F30" r:id="rId3" xr:uid="{0A22421D-793E-45E8-A2CB-80CFE33BCD11}"/>
-    <hyperlink ref="F16" r:id="rId4" xr:uid="{465B180E-DFE9-4A2A-89B6-10592FED8D93}"/>
-    <hyperlink ref="F13" r:id="rId5" xr:uid="{B68D5D52-75C8-4309-BC17-6673958E84D9}"/>
-    <hyperlink ref="F28" r:id="rId6" xr:uid="{C78FD541-C787-428D-8F70-78CA787DD814}"/>
-    <hyperlink ref="F3" r:id="rId7" xr:uid="{F227A589-2766-405C-89CF-E60D9B674DEF}"/>
-    <hyperlink ref="F6" r:id="rId8" xr:uid="{69502555-8DD3-4D5F-A731-085EB1F77850}"/>
-    <hyperlink ref="F26" r:id="rId9" xr:uid="{DF74AD1B-B8C2-4E11-AEA5-632057FA76B8}"/>
+    <hyperlink ref="F10" r:id="rId1" xr:uid="{73D5D20F-40E4-4622-ACDB-C4F28E77B62B}"/>
+    <hyperlink ref="F24" r:id="rId2" xr:uid="{19517BD2-E277-4FFE-B2F9-6DDA1DF152CE}"/>
+    <hyperlink ref="F30" r:id="rId3" xr:uid="{57BC1A9B-1980-4196-9C90-7758A401742E}"/>
+    <hyperlink ref="F16" r:id="rId4" xr:uid="{8A386D1E-9D59-4110-89E9-A50B7E47729D}"/>
+    <hyperlink ref="F13" r:id="rId5" xr:uid="{DDE3A8AD-061D-464D-A926-2F1177587C13}"/>
+    <hyperlink ref="F28" r:id="rId6" xr:uid="{B9AD31A5-9A26-4D27-B91A-16ECE9E3FEC3}"/>
+    <hyperlink ref="F3" r:id="rId7" xr:uid="{B91849FD-5247-4A4B-8F13-31074F7E4B8E}"/>
+    <hyperlink ref="F6" r:id="rId8" xr:uid="{3B4E2272-D6B8-4714-98F1-9D5D1B60EE1F}"/>
+    <hyperlink ref="F26" r:id="rId9" xr:uid="{D052C07C-7A7F-462F-959C-3C8AC14A6B5E}"/>
+    <hyperlink ref="F22" r:id="rId10" xr:uid="{0136F13B-1240-44E4-B6D5-7F2285A39825}"/>
+    <hyperlink ref="F18" r:id="rId11" xr:uid="{F3155FC1-239D-4350-B009-DF2C9DFFE5F3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>
 
@@ -1667,368 +1696,368 @@
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.875" style="7" customWidth="1"/>
-    <col min="2" max="2" width="55.5" style="14" customWidth="1"/>
-    <col min="3" max="3" width="42.75" style="14" customWidth="1"/>
-    <col min="4" max="4" width="59.875" style="7" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="7"/>
+    <col min="1" max="1" width="23.875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="55.5" style="15" customWidth="1"/>
+    <col min="3" max="3" width="42.75" style="15" customWidth="1"/>
+    <col min="4" max="4" width="59.875" style="8" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="33" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="11"/>
     </row>
     <row r="3" spans="1:4" ht="33" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="10"/>
+      <c r="D3" s="11"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="13"/>
     </row>
     <row r="5" spans="1:4" ht="33" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="11"/>
     </row>
     <row r="6" spans="1:4" ht="33" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="11"/>
     </row>
     <row r="7" spans="1:4" ht="33" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="13"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="14"/>
     </row>
     <row r="8" spans="1:4" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="11"/>
     </row>
     <row r="9" spans="1:4" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="11"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="5"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:4" ht="33" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
     </row>
     <row r="12" spans="1:4" ht="33" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="11"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="5"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="6"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="11"/>
     </row>
     <row r="15" spans="1:4" ht="115.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="11"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="11"/>
     </row>
     <row r="17" spans="1:4" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="4" t="s">
+      <c r="A17" s="9"/>
+      <c r="B17" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="11"/>
     </row>
     <row r="18" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="4" t="s">
+      <c r="A18" s="9"/>
+      <c r="B18" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="11"/>
     </row>
     <row r="19" spans="1:4" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="22"/>
-      <c r="B19" s="4" t="s">
+      <c r="A19" s="23"/>
+      <c r="B19" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="11"/>
     </row>
     <row r="20" spans="1:4" ht="33" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="11"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="5"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="6"/>
     </row>
     <row r="22" spans="1:4" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="11"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="11"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="11"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="11"/>
     </row>
     <row r="26" spans="1:4" ht="33" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="11"/>
     </row>
     <row r="27" spans="1:4" ht="33" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="11"/>
     </row>
     <row r="28" spans="1:4" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="11"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="5"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="6"/>
     </row>
     <row r="30" spans="1:4" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="9"/>
-      <c r="D30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="11"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C31" s="9"/>
-      <c r="D31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="11"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C32" s="9"/>
-      <c r="D32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="11"/>
     </row>
     <row r="33" spans="1:4" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C33" s="9"/>
-      <c r="D33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="11"/>
     </row>
     <row r="34" spans="1:4" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C34" s="9"/>
-      <c r="D34" s="13"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="14"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C35" s="9"/>
-      <c r="D35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="11"/>
     </row>
     <row r="36" spans="1:4" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C36" s="9"/>
-      <c r="D36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/繳交作業表清單(修正).xlsx
+++ b/繳交作業表清單(修正).xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="128">
   <si>
     <t>3.顯示姓名中包含有”A”的員工之姓名及部門名稱。</t>
   </si>
@@ -302,9 +302,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>李貫愈</t>
-  </si>
-  <si>
     <t>20號 鄒明衡</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -390,6 +387,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英文名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>備註</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reanko0117@gmail.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hopefuldom@gmail.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Johnny Chang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>riversnow@gmail.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ballman</t>
+  </si>
+  <si>
+    <t>h150059@gmail.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>domoii</t>
+  </si>
+  <si>
+    <t>jay</t>
+  </si>
+  <si>
     <t>題目號</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -398,14 +440,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英文名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>mail</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -414,18 +448,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>備註</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>yen ko</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>reanko0117@gmail.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ok</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -438,22 +464,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve">yu yu Hsieh </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dngg6688@gmail.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>dome</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hopefuldom@gmail.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Johnny Chang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>riversnow@gmail.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>缺</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -470,11 +492,16 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>余馥亘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ballman</t>
+    <t>李貫愈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>saint54386@yahoo.com.tw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>k23339123@yahoo.com.tw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ballman12304@yahoo.com.tw</t>
@@ -485,13 +512,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>h150059@gmail.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>domoii</t>
-  </si>
-  <si>
     <t>domoii019133@gmail.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -505,13 +525,6 @@
   </si>
   <si>
     <t>uch5566@gmail.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jay</t>
-  </si>
-  <si>
-    <t>k23339123@yahoo.com.tw</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -640,7 +653,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -676,6 +689,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -685,7 +711,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -769,6 +795,21 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1083,7 +1124,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1099,28 +1140,28 @@
   <sheetData>
     <row r="1" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
@@ -1153,13 +1194,13 @@
         <v>49</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="H3" s="17"/>
     </row>
@@ -1177,7 +1218,7 @@
       <c r="E4" s="22"/>
       <c r="F4" s="3"/>
       <c r="G4" s="4" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="H4" s="17"/>
     </row>
@@ -1209,13 +1250,13 @@
         <v>54</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="H6" s="17"/>
     </row>
@@ -1233,7 +1274,7 @@
       <c r="E7" s="22"/>
       <c r="F7" s="3"/>
       <c r="G7" s="4" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="H7" s="17"/>
     </row>
@@ -1264,9 +1305,15 @@
       <c r="D9" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="E9" s="22"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+      <c r="E9" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="H9" s="17"/>
     </row>
     <row r="10" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
@@ -1283,13 +1330,13 @@
         <v>60</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="F10" s="27" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="H10" s="17"/>
     </row>
@@ -1307,7 +1354,7 @@
       <c r="E11" s="22"/>
       <c r="F11" s="3"/>
       <c r="G11" s="4" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="H11" s="17"/>
     </row>
@@ -1341,13 +1388,13 @@
         <v>64</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="H13" s="17"/>
     </row>
@@ -1359,7 +1406,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="D14" s="16"/>
       <c r="E14" s="22"/>
@@ -1373,7 +1420,7 @@
         <v>2</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="D15" s="16"/>
       <c r="E15" s="22"/>
@@ -1393,38 +1440,41 @@
         <v>65</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="H16" s="19" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
+      <c r="A17" s="3">
+        <v>455</v>
+      </c>
       <c r="B17" s="3">
         <v>5</v>
       </c>
       <c r="C17" s="3">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E17" s="22"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
+      <c r="F17" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="H17" s="17"/>
     </row>
     <row r="18" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>455</v>
-      </c>
       <c r="B18" s="3">
         <v>6</v>
       </c>
@@ -1436,10 +1486,10 @@
       </c>
       <c r="E18" s="22"/>
       <c r="F18" s="27" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="H18" s="17"/>
     </row>
@@ -1457,7 +1507,7 @@
       <c r="E19" s="22"/>
       <c r="F19" s="3"/>
       <c r="G19" s="4" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="H19" s="17"/>
     </row>
@@ -1467,7 +1517,7 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>109</v>
+        <v>70</v>
       </c>
       <c r="D20" s="16"/>
       <c r="E20" s="22"/>
@@ -1480,38 +1530,34 @@
       <c r="B21" s="3">
         <v>9</v>
       </c>
-      <c r="C21" s="3">
-        <v>19</v>
-      </c>
-      <c r="D21" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="E21" s="22"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
       <c r="H21" s="17"/>
     </row>
     <row r="22" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
-      <c r="B22" s="3">
+      <c r="B22" s="28">
         <v>10</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="28">
         <v>20</v>
       </c>
-      <c r="D22" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="E22" s="22" t="s">
-        <v>123</v>
+      <c r="D22" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="E22" s="30" t="s">
+        <v>103</v>
       </c>
       <c r="F22" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="H22" s="17"/>
+        <v>121</v>
+      </c>
+      <c r="G22" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="H22" s="32"/>
     </row>
     <row r="23" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
@@ -1522,12 +1568,12 @@
         <v>21</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E23" s="22"/>
       <c r="F23" s="3"/>
       <c r="G23" s="4" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="H23" s="17"/>
     </row>
@@ -1542,16 +1588,16 @@
         <v>22</v>
       </c>
       <c r="D24" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E24" s="22" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="H24" s="17"/>
     </row>
@@ -1564,7 +1610,7 @@
         <v>23</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E25" s="22"/>
       <c r="F25" s="3"/>
@@ -1580,16 +1626,16 @@
         <v>24</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="F26" s="25" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="H26" s="17"/>
     </row>
@@ -1602,12 +1648,12 @@
         <v>25</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E27" s="22"/>
       <c r="F27" s="3"/>
       <c r="G27" s="4" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="H27" s="17"/>
     </row>
@@ -1620,16 +1666,16 @@
         <v>26</v>
       </c>
       <c r="D28" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E28" s="22" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="F28" s="25" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="H28" s="17"/>
     </row>
@@ -1642,7 +1688,7 @@
         <v>27</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E29" s="22"/>
       <c r="F29" s="3"/>
@@ -1658,36 +1704,38 @@
         <v>28</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E30" s="22" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="H30" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F10" r:id="rId1" xr:uid="{73D5D20F-40E4-4622-ACDB-C4F28E77B62B}"/>
-    <hyperlink ref="F24" r:id="rId2" xr:uid="{19517BD2-E277-4FFE-B2F9-6DDA1DF152CE}"/>
-    <hyperlink ref="F30" r:id="rId3" xr:uid="{57BC1A9B-1980-4196-9C90-7758A401742E}"/>
-    <hyperlink ref="F16" r:id="rId4" xr:uid="{8A386D1E-9D59-4110-89E9-A50B7E47729D}"/>
-    <hyperlink ref="F13" r:id="rId5" xr:uid="{DDE3A8AD-061D-464D-A926-2F1177587C13}"/>
-    <hyperlink ref="F28" r:id="rId6" xr:uid="{B9AD31A5-9A26-4D27-B91A-16ECE9E3FEC3}"/>
-    <hyperlink ref="F3" r:id="rId7" xr:uid="{B91849FD-5247-4A4B-8F13-31074F7E4B8E}"/>
-    <hyperlink ref="F6" r:id="rId8" xr:uid="{3B4E2272-D6B8-4714-98F1-9D5D1B60EE1F}"/>
-    <hyperlink ref="F26" r:id="rId9" xr:uid="{D052C07C-7A7F-462F-959C-3C8AC14A6B5E}"/>
-    <hyperlink ref="F22" r:id="rId10" xr:uid="{0136F13B-1240-44E4-B6D5-7F2285A39825}"/>
-    <hyperlink ref="F18" r:id="rId11" xr:uid="{F3155FC1-239D-4350-B009-DF2C9DFFE5F3}"/>
+    <hyperlink ref="F10" r:id="rId1" xr:uid="{CCFCC4CF-C29C-4459-9018-7FA3380FCEFD}"/>
+    <hyperlink ref="F24" r:id="rId2" xr:uid="{152E652A-4AD1-45F9-8E6E-E569074BDDC4}"/>
+    <hyperlink ref="F30" r:id="rId3" xr:uid="{047B91AB-4DEF-4CAB-AF7F-6A404B502F73}"/>
+    <hyperlink ref="F16" r:id="rId4" xr:uid="{14F8D2AC-2E13-4A5D-A8B3-E778E17BE401}"/>
+    <hyperlink ref="F13" r:id="rId5" xr:uid="{75AB2D8F-D6A5-4ACE-B91F-455888C70A93}"/>
+    <hyperlink ref="F28" r:id="rId6" xr:uid="{6B215C53-1326-4E63-9769-44FA031ABB9E}"/>
+    <hyperlink ref="F3" r:id="rId7" xr:uid="{53A7E6CA-9FC4-4699-8640-FE31B1DCB448}"/>
+    <hyperlink ref="F6" r:id="rId8" xr:uid="{5DA3D95D-5CA5-4863-AC80-7893FA5C419F}"/>
+    <hyperlink ref="F26" r:id="rId9" xr:uid="{A7CA8CE4-DAA7-46B9-887F-59B3CC95D4D7}"/>
+    <hyperlink ref="F22" r:id="rId10" xr:uid="{9644B83C-6D69-4E11-8494-CD396103367A}"/>
+    <hyperlink ref="F18" r:id="rId11" xr:uid="{848A063D-0E87-4734-997F-2D125E96E45E}"/>
+    <hyperlink ref="F17" r:id="rId12" xr:uid="{25A1FF3B-C93F-4AC5-9F28-FE1A0C2EA9B9}"/>
+    <hyperlink ref="F9" r:id="rId13" xr:uid="{37AC6469-0D7C-4DB9-8672-55423FC515A3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>
 
@@ -1863,7 +1911,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -1872,7 +1920,7 @@
     <row r="17" spans="1:4" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
       <c r="B17" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="11"/>
@@ -1880,7 +1928,7 @@
     <row r="18" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
       <c r="B18" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="11"/>
@@ -1888,17 +1936,17 @@
     <row r="19" spans="1:4" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="23"/>
       <c r="B19" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="11"/>
     </row>
     <row r="20" spans="1:4" ht="33" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="11"/>
@@ -1963,7 +2011,7 @@
     </row>
     <row r="27" spans="1:4" ht="33" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>32</v>
@@ -1991,7 +2039,7 @@
     </row>
     <row r="30" spans="1:4" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B30" s="10" t="s">
         <v>37</v>
@@ -2011,7 +2059,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B32" s="10" t="s">
         <v>39</v>
@@ -2041,7 +2089,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B35" s="10" t="s">
         <v>40</v>
@@ -2051,7 +2099,7 @@
     </row>
     <row r="36" spans="1:4" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B36" s="10" t="s">
         <v>41</v>
